--- a/DATABASE.xlsx
+++ b/DATABASE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +576,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DATABASE.xlsx
+++ b/DATABASE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>total_score</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,6 +590,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
